--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xxrose/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xxrose/PycharmProjects/toggl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BD81A08-A7AB-0942-BD91-53B9D55B1A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083E5D78-8D8E-BF4B-9F50-EF2E014CFBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16020" xr2:uid="{B2D9F050-3B98-9B49-96EA-0C2378DC0947}"/>
+    <workbookView xWindow="780" yWindow="860" windowWidth="27640" windowHeight="16020" xr2:uid="{B2D9F050-3B98-9B49-96EA-0C2378DC0947}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ФИО студента</t>
   </si>
@@ -40,43 +40,16 @@
     <t>ПОЧТА</t>
   </si>
   <si>
-    <t>Долидзе Татьяна Викторовна</t>
+    <t>Борисов Олег Александрович</t>
   </si>
   <si>
-    <t>tdolidze76@gmail.com</t>
+    <t>oleg419584@gmail.com</t>
   </si>
   <si>
-    <t>Онищук Ангелина Алексеевна</t>
+    <t>Борисов Олег Александрович 2</t>
   </si>
   <si>
-    <t>linaaaoni@gmail.com</t>
-  </si>
-  <si>
-    <t>Пекут Елизавета Станиславовна</t>
-  </si>
-  <si>
-    <t>LizaPekut@gmail.com</t>
-  </si>
-  <si>
-    <t>Ротару Полина Ионовна</t>
-  </si>
-  <si>
-    <t>rotaru.polin@gmail.com</t>
-  </si>
-  <si>
-    <t>Рункина Дарья Константиновна</t>
-  </si>
-  <si>
-    <t>darunkina@gmail.com</t>
-  </si>
-  <si>
-    <t>Сухорукова Анастасия Романовна</t>
-  </si>
-  <si>
-    <t>Sukhorukova2004@gmail.com</t>
-  </si>
-  <si>
-    <t>Фейзуллаева Мариет Шамильевна</t>
+    <t>oleg419584@yandex.ru</t>
   </si>
 </sst>
 </file>
@@ -211,7 +184,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -527,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB6875E-C27D-C241-BCDC-95FD8DCEA1B4}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,77 +528,25 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="mailto:darunkina@gmail.com" xr:uid="{BE77220B-3E16-084D-B5FA-94E824B4DCD4}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{582C4F22-743F-A14F-9C3D-74CB2D7CE492}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{88C4E7CD-0F71-944D-B95A-3A0D43AD6D21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
